--- a/src/main/static/rcbms/scripts/2021-pilot-cbms/references/sections/section_c.xlsx
+++ b/src/main/static/rcbms/scripts/2021-pilot-cbms/references/sections/section_c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhasabdulsamad/Desktop/R Codes/2021-pilot-cbms/references/sections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Pilot\rcbms-app\src\main\static\rcbms\scripts\2021-pilot-cbms\references\sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F828B9E-EBE2-914E-9F90-11117D5FC77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F795623-5493-4F0C-AFCD-681915654275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="section_c" sheetId="1" r:id="rId1"/>
@@ -800,24 +800,12 @@
     <t>Check the validity of age vs highest grade completed</t>
   </si>
   <si>
-    <t>12-15 years old currently attending bachelor level education</t>
-  </si>
-  <si>
-    <t>16-17 years old currently attending bachelor level education</t>
-  </si>
-  <si>
-    <t>18-24 years old currently attending doctoral level education</t>
-  </si>
-  <si>
     <t>3-4 years old currently attending primary education (elementary) and beyond</t>
   </si>
   <si>
     <t>Check the validity of age vs current grade</t>
   </si>
   <si>
-    <t>5-11 years old currently attending lower secondary (JHS)</t>
-  </si>
-  <si>
     <t>3-4 vs Current Grade</t>
   </si>
   <si>
@@ -981,6 +969,18 @@
   </si>
   <si>
     <t>c_c06_reason_not_in_school_male_pregnant</t>
+  </si>
+  <si>
+    <t>5-10 years old currently attending lower secondary (JHS)</t>
+  </si>
+  <si>
+    <t>11-14 years old currently attending upper secondary (SHS)</t>
+  </si>
+  <si>
+    <t>15-16 years old currently attending bachelor level education</t>
+  </si>
+  <si>
+    <t>17-22 years old currently attending doctoral level education</t>
   </si>
 </sst>
 </file>
@@ -1840,19 +1840,19 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="134.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="134.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -2447,12 +2447,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
@@ -2464,12 +2464,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
@@ -2481,12 +2481,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>149</v>
@@ -2498,12 +2498,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>152</v>
@@ -2515,12 +2515,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>155</v>
@@ -2532,12 +2532,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>158</v>
@@ -2549,12 +2549,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>161</v>
@@ -2566,12 +2566,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>164</v>
@@ -2583,12 +2583,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>167</v>
@@ -2600,12 +2600,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>170</v>
@@ -2617,12 +2617,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>173</v>
@@ -2634,12 +2634,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>175</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>176</v>
@@ -2651,12 +2651,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>179</v>
@@ -2668,12 +2668,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>182</v>
@@ -2685,12 +2685,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>185</v>
@@ -2702,12 +2702,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>188</v>
@@ -2719,12 +2719,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>191</v>
@@ -2736,12 +2736,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>194</v>
@@ -2753,12 +2753,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>197</v>
@@ -2770,12 +2770,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>200</v>
@@ -2787,12 +2787,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>203</v>
@@ -2804,12 +2804,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>206</v>
@@ -2821,12 +2821,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>209</v>
@@ -2838,12 +2838,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>211</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>212</v>
@@ -2855,12 +2855,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>215</v>
@@ -2872,12 +2872,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>218</v>
@@ -2889,12 +2889,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>221</v>
@@ -2906,12 +2906,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>224</v>
@@ -2923,12 +2923,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>226</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>227</v>
@@ -2940,12 +2940,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>229</v>
       </c>
       <c r="B65" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>230</v>
@@ -2957,12 +2957,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>232</v>
       </c>
       <c r="B66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>233</v>
@@ -2974,12 +2974,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>236</v>
@@ -2991,12 +2991,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>239</v>
@@ -3008,12 +3008,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>242</v>
@@ -3025,12 +3025,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>245</v>
@@ -3042,12 +3042,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>248</v>
@@ -3059,12 +3059,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>250</v>
       </c>
       <c r="B72" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>252</v>
@@ -3076,12 +3076,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>253</v>
@@ -3093,120 +3093,120 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>261</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>310</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>262</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C79" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B76" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>265</v>
-      </c>
-      <c r="B78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>266</v>
-      </c>
-      <c r="B79" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
